--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/82.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/82.xlsx
@@ -479,13 +479,13 @@
         <v>-9.057512038907259</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.69342909048138</v>
+        <v>-10.69269592152224</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.080768771182374</v>
+        <v>-4.028739959689354</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.712439473094889</v>
+        <v>-6.780309971026397</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.624446361382573</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.05019434291841</v>
+        <v>-11.05043000436956</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.136070658385824</v>
+        <v>-4.073842942979101</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.730533035622154</v>
+        <v>-6.788715229450785</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.066615799112014</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.88608551015125</v>
+        <v>-11.88431804926762</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.87859743070044</v>
+        <v>-3.823897789427708</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.563697820510039</v>
+        <v>-6.621971660458562</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.542486289034825</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.73047358192838</v>
+        <v>-12.73590688760769</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.985993590911119</v>
+        <v>-3.91644727821587</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.897734835213838</v>
+        <v>-6.964230641346965</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.045137910557046</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.43634508964004</v>
+        <v>-13.44908390030504</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.737881359757568</v>
+        <v>-3.67023343097437</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.469943839860439</v>
+        <v>-6.527013187947523</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-1.613585171338299</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.12609997255353</v>
+        <v>-14.1396766906004</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.801758705322349</v>
+        <v>-3.726504148588108</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.643325206393417</v>
+        <v>-6.699320985647479</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2472465451793826</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.73343880907836</v>
+        <v>-14.75442577053365</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.615376682067537</v>
+        <v>-3.54812152236959</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.351000268543357</v>
+        <v>-6.389661838834974</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>1.029021874587626</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.64461071765113</v>
+        <v>-15.667286586173</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.462262200333551</v>
+        <v>-3.392611149215568</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.162876969010595</v>
+        <v>-6.179150701442861</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>2.217372798851038</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.29591350711848</v>
+        <v>-16.31892977551423</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.45740495597927</v>
+        <v>-3.383053768141108</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.723158885768384</v>
+        <v>-5.744224401040721</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>3.305222565048731</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.8139497459599</v>
+        <v>-16.8522316394691</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.303950074371399</v>
+        <v>-3.235699899657481</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.488256788182134</v>
+        <v>-5.511377795000623</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>4.282997706403603</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.44375497416113</v>
+        <v>-17.47720580792174</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.411529526821862</v>
+        <v>-3.354800578608663</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.890501517337448</v>
+        <v>-4.914735369897483</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>5.157060563777813</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.34293433333087</v>
+        <v>-18.37237892242192</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.191264623812663</v>
+        <v>-3.133357368343709</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.247630170900172</v>
+        <v>-4.269036086046395</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>5.925027940935767</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.08571304275336</v>
+        <v>-19.10362331304084</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.075384651360546</v>
+        <v>-3.016731134629613</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.667745893434442</v>
+        <v>-3.706944248142569</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>6.590792681850985</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.83372867331254</v>
+        <v>-19.86401116978545</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.00510516970616</v>
+        <v>-2.94344042332163</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.071496237416553</v>
+        <v>-3.109843592439968</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>7.171361147919003</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.6784440526607</v>
+        <v>-20.72075837544516</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.008338968508066</v>
+        <v>-2.93752270243717</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.444479669720608</v>
+        <v>-2.501719217744634</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>7.674866456128336</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.38829562043625</v>
+        <v>-21.43406631117092</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.929038890195732</v>
+        <v>-2.858274993336202</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.024727348312028</v>
+        <v>-2.081377742708177</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>8.109047759217367</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.29028982471697</v>
+        <v>-22.3410355905315</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.838335416108253</v>
+        <v>-2.763512905367789</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.810772935272541</v>
+        <v>-1.856098487710597</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>8.48325627707613</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.13158811302344</v>
+        <v>-23.18364310912215</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.844318598506922</v>
+        <v>-2.775544731679335</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.3204661938499</v>
+        <v>-1.383283062884502</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>8.793041861907749</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.93607084573899</v>
+        <v>-23.98408032025959</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.618751312846824</v>
+        <v>-2.55266136810179</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.096325969199549</v>
+        <v>-1.148721365172137</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>9.032427943602615</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.37944168147404</v>
+        <v>-24.4342460611695</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.455176081142298</v>
+        <v>-2.392149735262229</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.705350529437084</v>
+        <v>-0.7582172483119739</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>9.198455119829665</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.04281557416146</v>
+        <v>-25.09697843101768</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.234963547344466</v>
+        <v>-2.181036351939396</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.5835135591919812</v>
+        <v>-0.6128534098602894</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>9.277955970187348</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.6142945932028</v>
+        <v>-25.6666638045697</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.22854831895202</v>
+        <v>-2.175773246197022</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1919096888931128</v>
+        <v>-0.2365282569777152</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>9.266533132730478</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.05326641518303</v>
+        <v>-26.1050595652249</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.165024465563965</v>
+        <v>-2.120379712873679</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2421186702911323</v>
+        <v>-0.2793924564815264</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>9.165694625703651</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.32862372855022</v>
+        <v>-26.38096675531144</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.81425548782844</v>
+        <v>-1.771954257346823</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2278218755879674</v>
+        <v>-0.2605002634809157</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>8.970609460458666</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.2424894681545</v>
+        <v>-26.29801392450626</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.705235882065387</v>
+        <v>-1.671064971648482</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.3878621855252268</v>
+        <v>-0.4199906966988226</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>8.69005987669223</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.14492562737796</v>
+        <v>-26.2179544926291</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.776484194130061</v>
+        <v>-1.744643713618983</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.360420718768969</v>
+        <v>-0.379443834797997</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>8.335838732251661</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.32491860684601</v>
+        <v>-26.38567998433446</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.494043944925504</v>
+        <v>-1.461784510723491</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.6983330551139189</v>
+        <v>-0.714528233729134</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>7.915878285812666</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.22549565906594</v>
+        <v>-26.30076330810302</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.396257535000652</v>
+        <v>-1.371801113292308</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7760096878738796</v>
+        <v>-0.7875832835859654</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>7.451849196110182</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.04593472559167</v>
+        <v>-26.11394923885443</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.475609982524354</v>
+        <v>-1.451480868387053</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9212164186914634</v>
+        <v>-0.9294645694817508</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>6.960328042270469</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.71140020337988</v>
+        <v>-25.77696645601124</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.386660877017667</v>
+        <v>-1.364129023827056</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.408852330334392</v>
+        <v>-1.412609821249968</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>6.453215568683967</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.71987092331848</v>
+        <v>-25.79320091153498</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.21465420228307</v>
+        <v>-1.196141686064869</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.69288984048564</v>
+        <v>-1.705667928059164</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>5.953704264773059</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.3726630519559</v>
+        <v>-25.44277233367335</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.181308106945193</v>
+        <v>-1.166526897036885</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.190279517745655</v>
+        <v>-2.206736542417704</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>5.469560844580805</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.83799958850549</v>
+        <v>-24.89410010618229</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.197581839377459</v>
+        <v>-1.187134181709762</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.300006107862161</v>
+        <v>-2.311579703574246</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>5.006462793173365</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.41566808343709</v>
+        <v>-24.47979418275587</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.363723162438963</v>
+        <v>-1.35459782735828</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.520899441407763</v>
+        <v>-2.522339594720353</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>4.573378241227843</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.77211593725205</v>
+        <v>-23.83062543865172</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.363618424016229</v>
+        <v>-1.353877750701985</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.725034627315956</v>
+        <v>-2.714482231225525</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>4.163822173277029</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.01678170940435</v>
+        <v>-23.07085292014068</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.340078463506805</v>
+        <v>-1.334317850256446</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.843284306582426</v>
+        <v>-2.846033690179188</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>3.774387940213583</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.64138611002354</v>
+        <v>-22.68823036959123</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.418593003648637</v>
+        <v>-1.410331760555508</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.147457778504247</v>
+        <v>-3.157512667086693</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>3.400292198343385</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.98561884528716</v>
+        <v>-22.05000679066277</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.337473095241302</v>
+        <v>-1.322089639402274</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.374295017539994</v>
+        <v>-3.386222105428806</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>3.027992130720133</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.49795674903855</v>
+        <v>-21.56208284835732</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.507345724612698</v>
+        <v>-1.49029954631277</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.605452716513509</v>
+        <v>-3.617458358219372</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>2.652202799924015</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.07697375116285</v>
+        <v>-21.10699440157892</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.428831184470867</v>
+        <v>-1.403183363203925</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.611095499038293</v>
+        <v>-3.620508864781494</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>2.26611439924184</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.2246386515608</v>
+        <v>-20.28088318456885</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.157741961830087</v>
+        <v>-1.129109095515232</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.715768460257893</v>
+        <v>-3.730759147011669</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.858290474521812</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.42467276332565</v>
+        <v>-19.46023145784378</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.164340482462316</v>
+        <v>-1.137187046368577</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.857597376942311</v>
+        <v>-3.870113618459001</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.429143146221655</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.99739236778308</v>
+        <v>-19.03518984608714</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.188849273382028</v>
+        <v>-1.157624131104511</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.079891586891979</v>
+        <v>-4.095785642541833</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9771658998590019</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.52114675961245</v>
+        <v>-18.5478026881982</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.176542508710805</v>
+        <v>-1.146822981260087</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.197578297136253</v>
+        <v>-4.208497277706253</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4996259544940908</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.08014563069175</v>
+        <v>-18.09389254867556</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.139635306999979</v>
+        <v>-1.110806056142499</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.346830549531931</v>
+        <v>-4.345665334579017</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.00213008393440963</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.30852457810894</v>
+        <v>-17.33167176953311</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.23740862462199</v>
+        <v>-1.20335554493066</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.643737793376594</v>
+        <v>-4.651907390349832</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.5120281460106272</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.45793075478484</v>
+        <v>-16.48634105195138</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.160700822272317</v>
+        <v>-1.128991264789656</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.604762007816777</v>
+        <v>-4.602798162390517</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.040248888017672</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.84718791952116</v>
+        <v>-15.85537060879724</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.120363437216959</v>
+        <v>-1.075888884463615</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.826336141110148</v>
+        <v>-4.832253861994609</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-1.574258973531197</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.94940943675548</v>
+        <v>-14.9717579977063</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.071660070645738</v>
+        <v>-1.033993515370092</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.953331478674891</v>
+        <v>-4.954601432050539</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.110115631705278</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.16140991331767</v>
+        <v>-14.17781456877835</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.071332763074694</v>
+        <v>-1.034648130512178</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.133023335177581</v>
+        <v>-5.138011502560279</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.642275864853556</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.42419543260292</v>
+        <v>-13.46195363399845</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.020115674357862</v>
+        <v>-0.980930411952576</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.027800497238629</v>
+        <v>-5.037816108912549</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.159409315331862</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.73056522804827</v>
+        <v>-12.76366256963215</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.021267797007934</v>
+        <v>-0.9765706751062813</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.10987614375341</v>
+        <v>-5.117954094606755</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.65968855123561</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.37051380759796</v>
+        <v>-12.39912048930713</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.217534508908249</v>
+        <v>-1.173819309719726</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.278256250600848</v>
+        <v>-5.28820640076056</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.136283909568012</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.70289800878982</v>
+        <v>-11.72189494021317</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.308879505834972</v>
+        <v>-1.262833876740622</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.761100379403706</v>
+        <v>-5.767751269247303</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.579933696015352</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.27891687356337</v>
+        <v>-11.29886954309416</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.325834038015008</v>
+        <v>-1.276973563809686</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.895152468200139</v>
+        <v>-5.900808343027765</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.989806673592915</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.50770168236865</v>
+        <v>-10.52504898363394</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.315268549621735</v>
+        <v>-1.265766552577168</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.347792654347135</v>
+        <v>-6.356656143370983</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.360085915214649</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.02132263179853</v>
+        <v>-10.05349041988065</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.521838903858489</v>
+        <v>-1.468016446876153</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.184361437973868</v>
+        <v>-6.200491155074874</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.685238090431106</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.464925945630853</v>
+        <v>-9.486659168348117</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.509047723982122</v>
+        <v>-1.457123650911837</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.406537817197959</v>
+        <v>-6.424880133479218</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.966243383812251</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.171121577559678</v>
+        <v>-9.19754184469428</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.584027342356687</v>
+        <v>-1.535559637236617</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.282592986195339</v>
+        <v>-6.306316238944547</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.197538362528056</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.523798848156217</v>
+        <v>-8.564686109930927</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.675608000734561</v>
+        <v>-1.619036160155463</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.70941515113845</v>
+        <v>-6.717637117323054</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.376660360627683</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.948156476811204</v>
+        <v>-7.99113850704059</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.5850354496755</v>
+        <v>-1.534983575911582</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.5697726490286</v>
+        <v>-6.583598120829463</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.505985956615153</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.489467646751331</v>
+        <v>-7.528836201396402</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.585297295732335</v>
+        <v>-1.525504748654172</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.63037691888295</v>
+        <v>-6.649151281157986</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.57935095876196</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.05756566830563</v>
+        <v>-7.110327648757786</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.724088798157473</v>
+        <v>-1.667124188493123</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.810513913682259</v>
+        <v>-6.825792631098554</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.59903454842974</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.629866319072122</v>
+        <v>-6.681017946274746</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.605328519080176</v>
+        <v>-1.551034739195538</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.004856057064841</v>
+        <v>-7.00537974917851</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.569083168814325</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.395383175176809</v>
+        <v>-6.4411276813058</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.760184277092112</v>
+        <v>-1.709451603580423</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.030215847669264</v>
+        <v>-7.035884814799732</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.488058256592602</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.252074828271275</v>
+        <v>-6.305648531499618</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.750482880686393</v>
+        <v>-1.700365545408265</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.078670460486492</v>
+        <v>-7.089825102507643</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.364380406186479</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.976180730487582</v>
+        <v>-6.03033049504096</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.666089896568626</v>
+        <v>-1.628842294983916</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.045245811331566</v>
+        <v>-7.047851179597069</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.204881521513994</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.87589369071996</v>
+        <v>-5.934219899879849</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.9542776667207</v>
+        <v>-1.910654113652069</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.085609380992607</v>
+        <v>-7.083331320298146</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.012821927327246</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.765158993284641</v>
+        <v>-5.830921630458631</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.897941487592753</v>
+        <v>-1.858677671370417</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.821563817280675</v>
+        <v>-6.822846862959165</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.800609981120598</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.498010553799221</v>
+        <v>-5.567700881825728</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.908873560465595</v>
+        <v>-1.87212346638887</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.73429052653773</v>
+        <v>-6.729394005274925</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.573453005659968</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.575634817347814</v>
+        <v>-5.654987264871516</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.98977089972462</v>
+        <v>-1.953164820979154</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.558212145619356</v>
+        <v>-6.547712118740292</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.3348350292707</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.647092606257956</v>
+        <v>-5.726706899838492</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.07669069829084</v>
+        <v>-2.040608311659042</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.389504731200874</v>
+        <v>-6.380876903628176</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.09620089653188</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.853911714248702</v>
+        <v>-5.929650686188087</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.937349319146349</v>
+        <v>-1.901790624628221</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.303723962981884</v>
+        <v>-6.28214784789872</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.857316536241696</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.998097245444631</v>
+        <v>-6.080264538079304</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.183641720204899</v>
+        <v>-2.157588037549865</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.156841417400559</v>
+        <v>-6.137189870835129</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.621441390662497</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.475442607053964</v>
+        <v>-6.558853668458601</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.176624245881734</v>
+        <v>-2.141968920259686</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.930226747513124</v>
+        <v>-5.90342680359611</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.393589660381962</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.953704429862217</v>
+        <v>-7.025424064829193</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.225078858698962</v>
+        <v>-2.193303839702093</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.978982483295711</v>
+        <v>-5.957602752755172</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.169297573411154</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.43742574295547</v>
+        <v>-7.510009469909999</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.181664782475799</v>
+        <v>-2.145346734392851</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.610551989026698</v>
+        <v>-5.58644905949508</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.950166189045199</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.841820793130704</v>
+        <v>-7.908107122418364</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.201499621281014</v>
+        <v>-2.176270753705008</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.448940602748431</v>
+        <v>-5.425217349999223</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.734985244537191</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.212647178819754</v>
+        <v>-8.284798859780507</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.471620013511506</v>
+        <v>-2.443327547070536</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.052191457432764</v>
+        <v>-5.031047388343377</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.516787127954176</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.128506131809859</v>
+        <v>-9.193313030876404</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.400109855389998</v>
+        <v>-2.368989451535215</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.055543086960246</v>
+        <v>-5.027643389604529</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.296066637394161</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.875317270507598</v>
+        <v>-9.930750080739466</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.491101360139995</v>
+        <v>-2.458959756663557</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.885369334623491</v>
+        <v>-4.857679114113241</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.068057061487711</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.63616335785167</v>
+        <v>-10.68672583142641</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.536570927909309</v>
+        <v>-2.520205549357152</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.562028731341382</v>
+        <v>-4.532374665404872</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.827122211392121</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.77172424482878</v>
+        <v>-11.82571690174806</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.626436494614917</v>
+        <v>-2.60385227221294</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.459686200027609</v>
+        <v>-4.427610058065381</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.576617350185766</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.58920763426615</v>
+        <v>-12.64056873831424</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.769221149406782</v>
+        <v>-2.746689296216171</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.100354856233596</v>
+        <v>-4.064351023418849</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.314999815706105</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.61529068488075</v>
+        <v>-13.67190180236837</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.863786852832569</v>
+        <v>-2.842380937686347</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.769211240457818</v>
+        <v>-3.744008557487496</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.045516108178238</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.61463925309254</v>
+        <v>-14.67004587871873</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.894697779841884</v>
+        <v>-2.876093617503791</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.327817342451866</v>
+        <v>-3.295937585032263</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.775661157134128</v>
       </c>
       <c r="E88" t="n">
-        <v>-15.99399191128543</v>
+        <v>-16.03761546435407</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.812844702475413</v>
+        <v>-2.784408220703184</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.076104728016841</v>
+        <v>-3.045521108578568</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-1.510011045968188</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.4075678491066</v>
+        <v>-17.45923007612005</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.039066603277597</v>
+        <v>-3.020815933116231</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.799006138371708</v>
+        <v>-2.774850839628724</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.259110534078667</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.88037336498373</v>
+        <v>-18.93029431571923</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.241264128365215</v>
+        <v>-3.219491628739424</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.66605380301398</v>
+        <v>-2.647646025218513</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.03235376882662</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.52010574209287</v>
+        <v>-20.55995871194308</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.460612570175493</v>
+        <v>-3.431495288655495</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.715725999995489</v>
+        <v>-2.705618742201676</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.8357510408408608</v>
       </c>
       <c r="E92" t="n">
-        <v>-21.99233519664497</v>
+        <v>-22.03546124220561</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.453058311435818</v>
+        <v>-3.438643686007077</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.616119759975637</v>
+        <v>-2.597947643631321</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.6784735060779084</v>
       </c>
       <c r="E93" t="n">
-        <v>-23.98328168978625</v>
+        <v>-24.0270361658833</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.691757176846167</v>
+        <v>-3.656303220750773</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.582603464700818</v>
+        <v>-2.568097193152186</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.5626250320856827</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.15803102252253</v>
+        <v>-26.19797563849263</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.491903173967219</v>
+        <v>-3.460376908724342</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.745563358171782</v>
+        <v>-2.72665807286833</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.4866063034503962</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.33030591002171</v>
+        <v>-28.37242384826355</v>
       </c>
       <c r="F95" t="n">
-        <v>-4.004100245741226</v>
+        <v>-3.964967352547307</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.952683589127889</v>
+        <v>-2.943951023132457</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.4481066488164982</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.36221821875476</v>
+        <v>-30.41380189195116</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.985050945106515</v>
+        <v>-3.946009698032487</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.286275465535069</v>
+        <v>-3.277490530328271</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.43730743281851</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.62138672021448</v>
+        <v>-32.6792808833806</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.129485230056437</v>
+        <v>-4.098901610618165</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.370301865173267</v>
+        <v>-3.361700222206253</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.4447318881619406</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.13197980544672</v>
+        <v>-35.18303978652945</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.41759444639146</v>
+        <v>-4.379535122030562</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.78613958803217</v>
+        <v>-3.783809158126343</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4583084310736897</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.53611937627287</v>
+        <v>-37.5842597738219</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.262804149893733</v>
+        <v>-4.233084622443015</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.189317054043125</v>
+        <v>-4.178659919529959</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4677497269764239</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.16199018802651</v>
+        <v>-40.20743357119014</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.386356211811102</v>
+        <v>-4.353730193129521</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.440021561159337</v>
+        <v>-4.429390611251855</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4611600323536859</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.60556377501194</v>
+        <v>-42.64845415912144</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.541630923513973</v>
+        <v>-4.508887074106816</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.958018523092229</v>
+        <v>-4.941757882962805</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4370445040674784</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.96693079245418</v>
+        <v>-45.01353939057073</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.627437876338646</v>
+        <v>-4.597351764408359</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.14940180603258</v>
+        <v>-5.143732838902113</v>
       </c>
     </row>
   </sheetData>
